--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8370F345-AC0B-468A-B7C0-FBF5C9116DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63F944-0EC9-4074-90C9-E58CD84C23EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1995" windowWidth="16950" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1920" windowWidth="16950" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,58 @@
   </si>
   <si>
     <t>3.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,7 +501,7 @@
         <v>27.4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C36" si="0">B3*0.2</f>
+        <f t="shared" ref="C3:C38" si="0">B3*0.2</f>
         <v>5.48</v>
       </c>
     </row>
@@ -466,221 +519,299 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.66</v>
+        <v>5.5600000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>30.8</v>
+        <v>28.3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.16</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>32.200000000000003</v>
+        <v>30.8</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6.4400000000000013</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>32.799999999999997</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.56</v>
+        <v>6.4400000000000013</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>32.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.4400000000000013</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>33.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.620000000000001</v>
+        <v>6.4400000000000013</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>34.9</v>
+        <v>33.1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.98</v>
+        <v>6.620000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>36.200000000000003</v>
+        <v>34.9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>7.2400000000000011</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.2400000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>37.299999999999997</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>7.46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>38.200000000000003</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>39.200000000000003</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+        <v>7.8400000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>40.799999999999997</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>41.7</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+        <v>8.3400000000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>45.8</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>44.4</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>43.6</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>45.9</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>46.6</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>46.4</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>47.6</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+        <v>9.5200000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -708,6 +839,135 @@
       <c r="C36">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75898247-527E-42B8-88C5-9EC33E37AC23}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>44.4</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63F944-0EC9-4074-90C9-E58CD84C23EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D273AE-E008-4CF5-AAD6-0DF0B46F18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="1920" windowWidth="16950" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,14 @@
   </si>
   <si>
     <t>3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,6 +198,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'3月'!$A$1:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75CA-4054-B10D-862115747E7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1158105727"/>
+        <c:axId val="1158084927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1158105727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158084927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1158084927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158105727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625A7114-F609-437A-E21C-CD8EB0C2BA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,7 +1480,7 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +1490,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.5</v>
       </c>
@@ -492,8 +1511,18 @@
         <f>B2*0.2</f>
         <v>5.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>49.6</v>
+      </c>
+      <c r="G2">
+        <f>F2*0.2</f>
+        <v>9.9200000000000017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.6</v>
       </c>
@@ -504,8 +1533,18 @@
         <f t="shared" ref="C3:C38" si="0">B3*0.2</f>
         <v>5.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>4.2</v>
+      </c>
+      <c r="F3">
+        <v>49.7</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G33" si="1">F3*0.2</f>
+        <v>9.9400000000000013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.7</v>
       </c>
@@ -516,10 +1555,20 @@
         <f t="shared" si="0"/>
         <v>5.4600000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>4.3</v>
+      </c>
+      <c r="F4">
+        <v>49.4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>27.8</v>
@@ -528,8 +1577,12 @@
         <f t="shared" si="0"/>
         <v>5.5600000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,8 +1593,12 @@
         <f t="shared" si="0"/>
         <v>5.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,8 +1609,12 @@
         <f t="shared" si="0"/>
         <v>6.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -564,8 +1625,12 @@
         <f t="shared" si="0"/>
         <v>6.4400000000000013</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,8 +1641,12 @@
         <f t="shared" si="0"/>
         <v>6.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -588,8 +1657,12 @@
         <f t="shared" si="0"/>
         <v>6.4400000000000013</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -600,8 +1673,12 @@
         <f t="shared" si="0"/>
         <v>6.620000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -612,8 +1689,12 @@
         <f t="shared" si="0"/>
         <v>6.98</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -624,8 +1705,12 @@
         <f t="shared" si="0"/>
         <v>7.2400000000000011</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -636,8 +1721,12 @@
         <f t="shared" si="0"/>
         <v>7.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,10 +1737,14 @@
         <f t="shared" si="0"/>
         <v>7.6400000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>39.200000000000003</v>
@@ -660,8 +1753,12 @@
         <f t="shared" si="0"/>
         <v>7.8400000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,8 +1769,12 @@
         <f t="shared" si="0"/>
         <v>8.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -684,8 +1785,12 @@
         <f t="shared" si="0"/>
         <v>8.3400000000000016</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -696,8 +1801,12 @@
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -708,10 +1817,14 @@
         <f t="shared" si="0"/>
         <v>9.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>44.4</v>
@@ -720,10 +1833,14 @@
         <f t="shared" si="0"/>
         <v>8.8800000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>43.6</v>
@@ -732,10 +1849,14 @@
         <f t="shared" si="0"/>
         <v>8.7200000000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>45.9</v>
@@ -744,10 +1865,14 @@
         <f t="shared" si="0"/>
         <v>9.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>46.6</v>
@@ -756,10 +1881,14 @@
         <f t="shared" si="0"/>
         <v>9.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f>F24*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>46.4</v>
@@ -768,10 +1897,14 @@
         <f t="shared" si="0"/>
         <v>9.2799999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>47.6</v>
@@ -780,74 +1913,112 @@
         <f t="shared" si="0"/>
         <v>9.5200000000000014</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>48.4</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.68</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -862,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75898247-527E-42B8-88C5-9EC33E37AC23}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,9 +2141,40 @@
         <v>44.4</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>48.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D273AE-E008-4CF5-AAD6-0DF0B46F18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2522D-C918-4E9E-9253-9EAF75E034BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1920" windowWidth="16950" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="3月" sheetId="2" r:id="rId2"/>
+    <sheet name="4月" sheetId="4" r:id="rId3"/>
+    <sheet name="5月" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,11 +143,98 @@
     <t>3.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,9 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,6 +591,7 @@
         <c:axId val="1158084927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
           <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -612,7 +705,1586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'4月'!$A$1:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A480-47C9-BA29-32963AE73A97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1587561008"/>
+        <c:axId val="1587541456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587561008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587541456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587541456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587561008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5565-42B4-BFD2-3FB3AA3B31AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5565-42B4-BFD2-3FB3AA3B31AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1651240975"/>
+        <c:axId val="1651241391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1651240975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651241391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651241391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651240975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$A$1:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B48-4EAC-A173-55FFDE228D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1629180304"/>
+        <c:axId val="1629183216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1629180304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629183216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1629183216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629180304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1165,20 +2837,1456 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1186,6 +4294,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625A7114-F609-437A-E21C-CD8EB0C2BA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BAE20D-607E-BCF3-F03D-64E345282EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671511</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6199BCE2-E626-80D5-FAD8-A6E3383BC6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490D3501-7025-DD54-E045-931E78131DE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,18 +4700,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,8 +4732,17 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.5</v>
       </c>
@@ -1508,21 +4750,31 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <f>B2*0.2</f>
-        <v>5.4</v>
-      </c>
-      <c r="E2">
+        <f>B2*0.075</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="E2" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="F2">
         <v>49.6</v>
       </c>
       <c r="G2">
-        <f>F2*0.2</f>
-        <v>9.9200000000000017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <f>F2*0.075</f>
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="H2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I2">
+        <v>62</v>
+      </c>
+      <c r="J2">
+        <f>I2*0.075</f>
+        <v>4.6499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.6</v>
       </c>
@@ -1530,21 +4782,31 @@
         <v>27.4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C38" si="0">B3*0.2</f>
-        <v>5.48</v>
-      </c>
-      <c r="E3">
+        <f t="shared" ref="C3:C27" si="0">B3*0.075</f>
+        <v>2.0549999999999997</v>
+      </c>
+      <c r="E3" s="1">
         <v>4.2</v>
       </c>
       <c r="F3">
         <v>49.7</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G33" si="1">F3*0.2</f>
-        <v>9.9400000000000013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G31" si="1">F3*0.075</f>
+        <v>3.7275</v>
+      </c>
+      <c r="H3">
+        <v>5.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>64.3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="2">I3*0.075</f>
+        <v>4.8224999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.7</v>
       </c>
@@ -1553,9 +4815,9 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>5.4600000000000009</v>
-      </c>
-      <c r="E4">
+        <v>2.0474999999999999</v>
+      </c>
+      <c r="E4" s="1">
         <v>4.3</v>
       </c>
       <c r="F4">
@@ -1563,10 +4825,20 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>9.8800000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.7049999999999996</v>
+      </c>
+      <c r="H4">
+        <v>5.3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>61.7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>4.6275000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1575,14 +4847,30 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.5600000000000005</v>
+        <v>2.085</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="H5">
+        <v>5.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>4.7324999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1591,14 +4879,30 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>5.66</v>
+        <v>2.1225000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F6">
+        <v>51.3</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.8474999999999997</v>
+      </c>
+      <c r="H6">
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,14 +4911,24 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6.16</v>
+        <v>2.31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>52.2</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
+        <v>3.915</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1623,14 +4937,24 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.4400000000000013</v>
+        <v>2.415</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
+        <v>3.9749999999999996</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1639,14 +4963,24 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.56</v>
+        <v>2.4599999999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F9">
+        <v>53.3</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
+        <v>3.9974999999999996</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,14 +4989,24 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.4400000000000013</v>
+        <v>2.415</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F10">
+        <v>53.5</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
+        <v>4.0125000000000002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1671,14 +5015,24 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.620000000000001</v>
+        <v>2.4824999999999999</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>52.4</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1687,14 +5041,24 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.98</v>
+        <v>2.6174999999999997</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>54.3</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
+        <v>4.0724999999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1703,14 +5067,24 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>7.2400000000000011</v>
+        <v>2.7150000000000003</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>54.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
+        <v>4.0874999999999995</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1719,14 +5093,24 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>7.46</v>
+        <v>2.7974999999999999</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>55.5</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
+        <v>4.1624999999999996</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1735,14 +5119,24 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>7.6400000000000006</v>
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>54.1</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
+        <v>4.0575000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1751,14 +5145,24 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>7.8400000000000007</v>
+        <v>2.94</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>54.4</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
+        <v>4.08</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1767,14 +5171,24 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>8.16</v>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>55.1</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
+        <v>4.1325000000000003</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1783,14 +5197,24 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>8.3400000000000016</v>
+        <v>3.1274999999999999</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>57.7</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
+        <v>4.3274999999999997</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J32" si="3">I18*0.05</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1799,14 +5223,24 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>56.5</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
+        <v>4.2374999999999998</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1815,14 +5249,24 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>9.16</v>
+        <v>3.4349999999999996</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>59.8</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
+        <v>4.4849999999999994</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1831,14 +5275,24 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>8.8800000000000008</v>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>59.8</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
+        <v>4.4849999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1847,14 +5301,24 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>8.7200000000000006</v>
+        <v>3.27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>59.6</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
+        <v>4.47</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1863,14 +5327,24 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>9.18</v>
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>58.8</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
+        <v>4.4099999999999993</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1879,14 +5353,24 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>9.32</v>
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>59.4</v>
       </c>
       <c r="G24">
-        <f>F24*0.2</f>
+        <f t="shared" si="1"/>
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1895,14 +5379,24 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>9.2799999999999994</v>
+        <v>3.48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>60.4</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
+        <v>4.5299999999999994</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1911,14 +5405,24 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>9.5200000000000014</v>
+        <v>3.57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>59.9</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
+        <v>4.4924999999999997</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1927,100 +5431,154 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>9.68</v>
+        <v>3.63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>61.2</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
+        <v>4.59</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C28:C38" si="4">B28*0.2</f>
         <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>60.9</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
+        <v>4.5674999999999999</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>61.1</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
+        <v>4.5824999999999996</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>60.8</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>61.4</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
+        <v>4.6049999999999995</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G32:G33" si="5">F32*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,7 +5594,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2177,4 +5735,728 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2228C753-83C7-4E96-885F-E5B868A2A1B6}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>61.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E22A9C3-AFA8-402B-B69F-09D738CF4E47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F95AF-CF44-49EB-B290-97BE69F59818}">
+  <dimension ref="A2:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27.4</v>
+      </c>
+      <c r="B3">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>27.3</v>
+      </c>
+      <c r="B4">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>27.8</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>28.3</v>
+      </c>
+      <c r="B6">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30.8</v>
+      </c>
+      <c r="B7">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B9">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B10">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>33.1</v>
+      </c>
+      <c r="B11">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>34.9</v>
+      </c>
+      <c r="B12">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B13">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B14">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B15">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B16">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="B17">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>41.7</v>
+      </c>
+      <c r="B18">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>45.8</v>
+      </c>
+      <c r="B20">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>44.4</v>
+      </c>
+      <c r="B21">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>43.6</v>
+      </c>
+      <c r="B22">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>45.9</v>
+      </c>
+      <c r="B23">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46.6</v>
+      </c>
+      <c r="B24">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>46.4</v>
+      </c>
+      <c r="B25">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>47.6</v>
+      </c>
+      <c r="B26">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>48.4</v>
+      </c>
+      <c r="B27">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>61.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C27429A-53F2-4784-8533-80DA1293E7C0}">
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>61.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F96EF-50FC-478F-89C0-9B1CFDE5CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB759C-D927-4701-9497-0546E28584E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3-5月" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,6 +933,195 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51CE-45D8-B3DE-AA233E09112F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>布丁!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>六月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>布丁!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C4C-4311-A898-C248C76BC338}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,9 +1420,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>侏儒</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1302,10 +1492,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$A$2:$A$88</c:f>
+              <c:f>汇总!$A$2:$A$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -1566,6 +1756,84 @@
                 </c:pt>
                 <c:pt idx="86" formatCode="0.0_ ">
                   <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>70.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,9 +1848,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>金丝熊</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1655,10 +1920,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$B$2:$B$88</c:f>
+              <c:f>汇总!$B$2:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>37.200000000000003</c:v>
                 </c:pt>
@@ -1727,6 +1992,96 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>93.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11:L33"/>
     </sheetView>
   </sheetViews>
@@ -4678,15 +5033,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2228C753-83C7-4E96-885F-E5B868A2A1B6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -4694,8 +5049,15 @@
       <c r="D1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4714,14 +5076,35 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.1</v>
       </c>
+      <c r="B3">
+        <v>68.900000000000006</v>
+      </c>
       <c r="C3">
         <f>B3*0.075</f>
-        <v>0</v>
+        <v>5.1675000000000004</v>
       </c>
       <c r="D3">
         <v>6.1</v>
@@ -4733,24 +5116,1047 @@
         <f>E3*0.075</f>
         <v>4.8824999999999994</v>
       </c>
+      <c r="G3">
+        <v>7.1</v>
+      </c>
+      <c r="H3">
+        <v>69.3</v>
+      </c>
+      <c r="I3">
+        <f>H3*0.075</f>
+        <v>5.1974999999999998</v>
+      </c>
+      <c r="J3">
+        <v>7.1</v>
+      </c>
+      <c r="K3">
+        <v>93.1</v>
+      </c>
+      <c r="L3">
+        <f>K3*0.075</f>
+        <v>6.982499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.2</v>
+      </c>
+      <c r="B4">
+        <v>68.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C38" si="0">B4*0.075</f>
+        <v>5.1375000000000002</v>
+      </c>
+      <c r="D4">
+        <v>6.2</v>
+      </c>
+      <c r="E4">
+        <v>65.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F38" si="1">E4*0.075</f>
+        <v>4.9124999999999996</v>
+      </c>
+      <c r="G4">
+        <v>7.2</v>
+      </c>
+      <c r="H4">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I32" si="2">H4*0.075</f>
+        <v>5.294999999999999</v>
+      </c>
+      <c r="J4">
+        <v>7.2</v>
+      </c>
+      <c r="K4">
+        <v>86.3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L32" si="3">K4*0.075</f>
+        <v>6.4724999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.3</v>
+      </c>
+      <c r="B5">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="D5">
+        <v>6.3</v>
+      </c>
+      <c r="E5">
+        <v>67.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.0625</v>
+      </c>
+      <c r="G5">
+        <v>7.3</v>
+      </c>
+      <c r="H5">
+        <v>69.7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>5.2275</v>
+      </c>
+      <c r="J5">
+        <v>7.3</v>
+      </c>
+      <c r="K5">
+        <v>89.7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>6.7275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.4</v>
+      </c>
+      <c r="B6">
+        <v>68.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5.1599999999999993</v>
+      </c>
+      <c r="D6">
+        <v>6.4</v>
+      </c>
+      <c r="E6">
+        <v>69.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.2124999999999995</v>
+      </c>
+      <c r="G6">
+        <v>7.4</v>
+      </c>
+      <c r="H6">
+        <v>70.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>5.2874999999999996</v>
+      </c>
+      <c r="J6">
+        <v>7.4</v>
+      </c>
+      <c r="K6">
+        <v>89.3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>6.6974999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.5</v>
+      </c>
+      <c r="B7">
+        <v>69.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5.2349999999999994</v>
+      </c>
+      <c r="D7">
+        <v>6.5</v>
+      </c>
+      <c r="E7">
+        <v>70.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.31</v>
+      </c>
+      <c r="G7">
+        <v>7.5</v>
+      </c>
+      <c r="H7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>5.4449999999999994</v>
+      </c>
+      <c r="J7">
+        <v>7.5</v>
+      </c>
+      <c r="K7">
+        <v>88.7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>6.6524999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6.6</v>
+      </c>
+      <c r="B8">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.22</v>
+      </c>
+      <c r="D8">
+        <v>6.6</v>
+      </c>
+      <c r="E8">
+        <v>72.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.415</v>
+      </c>
+      <c r="G8">
+        <v>7.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6.7</v>
+      </c>
+      <c r="B9">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="D9">
+        <v>6.7</v>
+      </c>
+      <c r="E9">
+        <v>75.7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.6775000000000002</v>
+      </c>
+      <c r="G9">
+        <v>7.7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.8</v>
+      </c>
+      <c r="B10">
+        <v>70.3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.2725</v>
+      </c>
+      <c r="D10">
+        <v>6.8</v>
+      </c>
+      <c r="E10">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.6550000000000002</v>
+      </c>
+      <c r="G10">
+        <v>7.8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6.9</v>
+      </c>
+      <c r="B11">
+        <v>69.8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5.2349999999999994</v>
+      </c>
+      <c r="D11">
+        <v>6.9</v>
+      </c>
+      <c r="E11">
+        <v>76.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="G11">
+        <v>7.9</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.9</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6.1</v>
+      </c>
+      <c r="B12">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.3174999999999999</v>
+      </c>
+      <c r="D12">
+        <v>6.1</v>
+      </c>
+      <c r="E12">
+        <v>76.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.7374999999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6.11</v>
+      </c>
+      <c r="B13">
+        <v>71.8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="D13">
+        <v>6.11</v>
+      </c>
+      <c r="E13">
+        <v>77.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.8125</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6.12</v>
+      </c>
+      <c r="B14">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.3699999999999992</v>
+      </c>
+      <c r="D14">
+        <v>6.12</v>
+      </c>
+      <c r="E14">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6.13</v>
+      </c>
+      <c r="B15">
+        <v>68.3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.1224999999999996</v>
+      </c>
+      <c r="D15">
+        <v>6.13</v>
+      </c>
+      <c r="E15">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.9324999999999992</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6.14</v>
+      </c>
+      <c r="B16">
+        <v>69.8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.2349999999999994</v>
+      </c>
+      <c r="D16">
+        <v>6.14</v>
+      </c>
+      <c r="E16">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6.03</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.15</v>
+      </c>
+      <c r="B17">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.3054999999999994</v>
+      </c>
+      <c r="D17">
+        <v>6.15</v>
+      </c>
+      <c r="E17">
+        <v>81.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.1124999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.16</v>
+      </c>
+      <c r="B18">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="D18">
+        <v>6.16</v>
+      </c>
+      <c r="E18">
+        <v>82.6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6.1949999999999994</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.17</v>
+      </c>
+      <c r="B19">
+        <v>68.5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.1375000000000002</v>
+      </c>
+      <c r="D19">
+        <v>6.17</v>
+      </c>
+      <c r="E19">
+        <v>83.4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.18</v>
+      </c>
+      <c r="B20">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="D20">
+        <v>6.18</v>
+      </c>
+      <c r="E20">
+        <v>86.1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>6.4574999999999996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.19</v>
+      </c>
+      <c r="B21">
+        <v>69.8</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5.2349999999999994</v>
+      </c>
+      <c r="D21">
+        <v>6.19</v>
+      </c>
+      <c r="E21">
+        <v>85.6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>6.419999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6.2</v>
+      </c>
+      <c r="B22">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5.2574999999999994</v>
+      </c>
+      <c r="D22">
+        <v>6.2</v>
+      </c>
+      <c r="E22">
+        <v>84.1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6.3074999999999992</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6.21</v>
+      </c>
+      <c r="B23">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="D23">
+        <v>6.21</v>
+      </c>
+      <c r="E23">
+        <v>88.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>6.6675000000000004</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6.22</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5.0249999999999995</v>
+      </c>
+      <c r="D24">
+        <v>6.22</v>
+      </c>
+      <c r="E24">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6.23</v>
+      </c>
+      <c r="B25">
+        <v>66.7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>5.0025000000000004</v>
+      </c>
+      <c r="D25">
+        <v>6.23</v>
+      </c>
+      <c r="E25">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>6.5249999999999995</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6.24</v>
+      </c>
+      <c r="B26">
+        <v>71.3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>5.3474999999999993</v>
+      </c>
+      <c r="D26">
+        <v>6.24</v>
+      </c>
+      <c r="E26">
+        <v>87.7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>6.5774999999999997</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6.25</v>
+      </c>
+      <c r="B27">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5.0249999999999995</v>
+      </c>
+      <c r="D27">
+        <v>6.25</v>
+      </c>
+      <c r="E27">
+        <v>90.2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.26</v>
+      </c>
+      <c r="B28">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5.13</v>
+      </c>
+      <c r="D28">
+        <v>6.26</v>
+      </c>
+      <c r="E28">
+        <v>90.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>6.7874999999999996</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6.27</v>
+      </c>
+      <c r="B29">
+        <v>68.2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="D29">
+        <v>6.27</v>
+      </c>
+      <c r="E29">
+        <v>90.5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>6.7874999999999996</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6.28</v>
+      </c>
+      <c r="B30">
+        <v>69.3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>5.1974999999999998</v>
+      </c>
+      <c r="D30">
+        <v>6.28</v>
+      </c>
+      <c r="E30">
+        <v>90.4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>6.78</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.29</v>
+      </c>
+      <c r="B31">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>5.1675000000000004</v>
+      </c>
+      <c r="D31">
+        <v>6.29</v>
+      </c>
+      <c r="E31">
+        <v>87.7</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>6.5774999999999997</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6.3</v>
+      </c>
+      <c r="B32">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>5.1675000000000004</v>
+      </c>
+      <c r="D32">
+        <v>6.3</v>
+      </c>
+      <c r="E32">
+        <v>93.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>7.0125000000000002</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F95AF-CF44-49EB-B290-97BE69F59818}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4760,8 +6166,11 @@
       <c r="C1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>27</v>
       </c>
@@ -4771,8 +6180,11 @@
       <c r="C2">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>27.4</v>
       </c>
@@ -4782,8 +6194,11 @@
       <c r="C3" s="2">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27.3</v>
       </c>
@@ -4793,8 +6208,11 @@
       <c r="C4" s="2">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27.8</v>
       </c>
@@ -4804,8 +6222,11 @@
       <c r="C5" s="2">
         <v>63.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28.3</v>
       </c>
@@ -4815,8 +6236,11 @@
       <c r="C6" s="2">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30.8</v>
       </c>
@@ -4826,8 +6250,11 @@
       <c r="C7" s="2">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32.200000000000003</v>
       </c>
@@ -4837,8 +6264,11 @@
       <c r="C8" s="2">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32.799999999999997</v>
       </c>
@@ -4848,8 +6278,11 @@
       <c r="C9" s="2">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>32.200000000000003</v>
       </c>
@@ -4859,8 +6292,11 @@
       <c r="C10" s="2">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33.1</v>
       </c>
@@ -4870,8 +6306,11 @@
       <c r="C11" s="2">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34.9</v>
       </c>
@@ -4881,8 +6320,11 @@
       <c r="C12" s="2">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36.200000000000003</v>
       </c>
@@ -4892,8 +6334,11 @@
       <c r="C13" s="2">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>37.299999999999997</v>
       </c>
@@ -4903,8 +6348,11 @@
       <c r="C14" s="2">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38.200000000000003</v>
       </c>
@@ -4914,8 +6362,11 @@
       <c r="C15" s="2">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>39.200000000000003</v>
       </c>
@@ -4925,8 +6376,11 @@
       <c r="C16" s="2">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>70.739999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40.799999999999997</v>
       </c>
@@ -4936,8 +6390,11 @@
       <c r="C17" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>41.7</v>
       </c>
@@ -4947,8 +6404,11 @@
       <c r="C18" s="2">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>44</v>
       </c>
@@ -4958,8 +6418,11 @@
       <c r="C19" s="2">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>45.8</v>
       </c>
@@ -4969,8 +6432,11 @@
       <c r="C20" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44.4</v>
       </c>
@@ -4980,8 +6446,11 @@
       <c r="C21" s="2">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>43.6</v>
       </c>
@@ -4991,8 +6460,11 @@
       <c r="C22" s="2">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>45.9</v>
       </c>
@@ -5002,8 +6474,11 @@
       <c r="C23" s="2">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>46.6</v>
       </c>
@@ -5013,8 +6488,11 @@
       <c r="C24" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>46.4</v>
       </c>
@@ -5024,8 +6502,11 @@
       <c r="C25" s="2">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47.6</v>
       </c>
@@ -5035,8 +6516,11 @@
       <c r="C26" s="2">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>48.4</v>
       </c>
@@ -5046,40 +6530,55 @@
       <c r="C27" s="2">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>60.9</v>
       </c>
       <c r="C28" s="2">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>61.1</v>
       </c>
       <c r="C29" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>60.8</v>
       </c>
       <c r="C30" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>61.4</v>
       </c>
       <c r="C31" s="2">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>68.8</v>
       </c>
@@ -5093,127 +6592,231 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75898247-527E-42B8-88C5-9EC33E37AC23}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>63</v>
+      </c>
+      <c r="B23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>93.5</v>
       </c>
     </row>
   </sheetData>
@@ -5225,10 +6828,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C27429A-53F2-4784-8533-80DA1293E7C0}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5429,198 +7032,288 @@
       <c r="A25">
         <v>46.4</v>
       </c>
+      <c r="B25">
+        <v>65.099999999999994</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47.6</v>
       </c>
+      <c r="B26">
+        <v>65.5</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>48.4</v>
       </c>
+      <c r="B27">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>49.6</v>
       </c>
+      <c r="B28">
+        <v>69.5</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>49.7</v>
       </c>
+      <c r="B29">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>49.4</v>
       </c>
+      <c r="B30">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>51</v>
       </c>
+      <c r="B31">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>61.1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>60.8</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>61.4</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>64.3</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>61.7</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>63.1</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>62.8</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62.5</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62.3</v>
       </c>
@@ -5743,6 +7436,156 @@
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>68.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>70.739999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>68.900000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119064C4-E1D1-49E6-8F69-39ECE0492641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5BF7A-F947-43EE-971C-4F750E60BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3741,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L33"/>
+    <sheetView topLeftCell="C69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5036,7 +5036,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5381,9 +5381,12 @@
       <c r="J9">
         <v>7.7</v>
       </c>
+      <c r="K9">
+        <v>92.6</v>
+      </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.9449999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5410,16 +5413,22 @@
       <c r="G10">
         <v>7.8</v>
       </c>
+      <c r="H10">
+        <v>75.3</v>
+      </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6475</v>
       </c>
       <c r="J10">
         <v>7.8</v>
       </c>
+      <c r="K10">
+        <v>92</v>
+      </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8999999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5446,16 +5455,22 @@
       <c r="G11">
         <v>7.9</v>
       </c>
+      <c r="H11">
+        <v>74.2</v>
+      </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="J11">
         <v>7.9</v>
       </c>
+      <c r="K11">
+        <v>92.2</v>
+      </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.915</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5479,13 +5494,25 @@
         <f t="shared" si="1"/>
         <v>5.7374999999999998</v>
       </c>
+      <c r="G12">
+        <v>7.1</v>
+      </c>
+      <c r="H12">
+        <v>73.599999999999994</v>
+      </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.52</v>
+      </c>
+      <c r="J12">
+        <v>7.1</v>
+      </c>
+      <c r="K12">
+        <v>92.3</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.9224999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5509,13 +5536,25 @@
         <f t="shared" si="1"/>
         <v>5.8125</v>
       </c>
+      <c r="G13">
+        <v>7.11</v>
+      </c>
+      <c r="H13">
+        <v>74.5</v>
+      </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5874999999999995</v>
+      </c>
+      <c r="J13">
+        <v>7.11</v>
+      </c>
+      <c r="K13">
+        <v>91.5</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8624999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5539,13 +5578,25 @@
         <f t="shared" si="1"/>
         <v>5.8949999999999996</v>
       </c>
+      <c r="G14">
+        <v>7.12</v>
+      </c>
+      <c r="H14">
+        <v>75.3</v>
+      </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6475</v>
+      </c>
+      <c r="J14">
+        <v>7.12</v>
+      </c>
+      <c r="K14">
+        <v>91.8</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8849999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5569,13 +5620,25 @@
         <f t="shared" si="1"/>
         <v>5.9324999999999992</v>
       </c>
+      <c r="G15">
+        <v>7.13</v>
+      </c>
+      <c r="H15">
+        <v>75.2</v>
+      </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.64</v>
+      </c>
+      <c r="J15">
+        <v>7.13</v>
+      </c>
+      <c r="K15">
+        <v>87.9</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5925000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">

--- a/其他共享文件/mouse.xlsx
+++ b/其他共享文件/mouse.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git内容\fiction\其他共享文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5BF7A-F947-43EE-971C-4F750E60BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EF638-48AD-4109-8EDF-61CB8433AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3-5月" sheetId="1" r:id="rId1"/>
     <sheet name="6-8月" sheetId="4" r:id="rId2"/>
-    <sheet name="布丁" sheetId="3" r:id="rId3"/>
-    <sheet name="金丝熊" sheetId="2" r:id="rId4"/>
-    <sheet name="汇总" sheetId="5" r:id="rId5"/>
+    <sheet name="9-12" sheetId="6" r:id="rId3"/>
+    <sheet name="布丁" sheetId="3" r:id="rId4"/>
+    <sheet name="金丝熊" sheetId="2" r:id="rId5"/>
+    <sheet name="汇总" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +253,18 @@
   </si>
   <si>
     <t>六月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,6 +1135,382 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C4C-4311-A898-C248C76BC338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>布丁!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>七月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>布丁!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1937-490A-8B6B-0E794B7C39DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>八月</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>布丁!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-258B-42E3-859E-FEDFDFD76724}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1363,6 +1752,1039 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>米熊</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39852003310452272"/>
+          <c:y val="1.6789081544701261E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>五月</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>金丝熊!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7A0F-47A3-BE85-1B0B7CF680C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>金丝熊!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>六月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>金丝熊!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7A0F-47A3-BE85-1B0B7CF680C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>金丝熊!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>七月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>金丝熊!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7A0F-47A3-BE85-1B0B7CF680C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>金丝熊!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>八月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>金丝熊!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7A0F-47A3-BE85-1B0B7CF680C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1651240975"/>
+        <c:axId val="1651241391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1651240975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651241391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651241391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651240975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1420,6 +2842,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>汇总!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>布丁</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1492,10 +2925,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$A$2:$A$114</c:f>
+              <c:f>汇总!$A$2:$A$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -1834,6 +3267,204 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>87.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,6 +3479,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>汇总!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>金丝熊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1920,10 +3562,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>汇总!$B$2:$B$114</c:f>
+              <c:f>汇总!$B$2:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>37.200000000000003</c:v>
                 </c:pt>
@@ -2082,6 +3724,192 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>102.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114.1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,7 +3988,6 @@
         <c:axId val="1814441968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
           <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2255,7 +4082,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2339,6 +4166,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2879,6 +4746,506 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3439,14 +5806,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633414</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E514E-0A1C-4024-A41D-BE382D50A85C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3741,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5033,15 +7443,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2228C753-83C7-4E96-885F-E5B868A2A1B6}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5056,8 +7466,17 @@
       <c r="J1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5094,8 +7513,23 @@
       <c r="L2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.1</v>
       </c>
@@ -5136,8 +7570,25 @@
         <f>K3*0.075</f>
         <v>6.982499999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>8.1</v>
+      </c>
+      <c r="N3">
+        <v>84.1</v>
+      </c>
+      <c r="O3">
+        <f>N3*0.075</f>
+        <v>6.3074999999999992</v>
+      </c>
+      <c r="P3">
+        <v>99.7</v>
+      </c>
+      <c r="Q3">
+        <f>P3*0.075</f>
+        <v>7.4775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.2</v>
       </c>
@@ -5165,7 +7616,7 @@
         <v>70.599999999999994</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I32" si="2">H4*0.075</f>
+        <f t="shared" ref="I4:I33" si="2">H4*0.075</f>
         <v>5.294999999999999</v>
       </c>
       <c r="J4">
@@ -5175,11 +7626,28 @@
         <v>86.3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L32" si="3">K4*0.075</f>
+        <f t="shared" ref="L4:L33" si="3">K4*0.075</f>
         <v>6.4724999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N4">
+        <v>84.5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O35" si="4">N4*0.075</f>
+        <v>6.3374999999999995</v>
+      </c>
+      <c r="P4">
+        <v>99.5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q35" si="5">P4*0.075</f>
+        <v>7.4624999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.3</v>
       </c>
@@ -5220,8 +7688,25 @@
         <f t="shared" si="3"/>
         <v>6.7275</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N5">
+        <v>85.4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="P5">
+        <v>97.6</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>7.3199999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.4</v>
       </c>
@@ -5262,8 +7747,25 @@
         <f t="shared" si="3"/>
         <v>6.6974999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>8.4</v>
+      </c>
+      <c r="N6">
+        <v>86.9</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>6.5175000000000001</v>
+      </c>
+      <c r="P6">
+        <v>102</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>7.6499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -5304,8 +7806,25 @@
         <f t="shared" si="3"/>
         <v>6.6524999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>8.5</v>
+      </c>
+      <c r="N7">
+        <v>87.9</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>6.5925000000000002</v>
+      </c>
+      <c r="P7">
+        <v>101.8</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>7.6349999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.6</v>
       </c>
@@ -5346,8 +7865,25 @@
         <f t="shared" si="3"/>
         <v>6.6974999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>8.6</v>
+      </c>
+      <c r="N8">
+        <v>87.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>6.5625</v>
+      </c>
+      <c r="P8">
+        <v>100.9</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>7.5674999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.7</v>
       </c>
@@ -5388,8 +7924,25 @@
         <f t="shared" si="3"/>
         <v>6.9449999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N9">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>6.45</v>
+      </c>
+      <c r="P9">
+        <v>102.5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>7.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.8</v>
       </c>
@@ -5430,8 +7983,25 @@
         <f t="shared" si="3"/>
         <v>6.8999999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N10">
+        <v>86.3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>6.4724999999999993</v>
+      </c>
+      <c r="P10">
+        <v>102.6</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>7.6949999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.9</v>
       </c>
@@ -5472,8 +8042,25 @@
         <f t="shared" si="3"/>
         <v>6.915</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>8.9</v>
+      </c>
+      <c r="N11">
+        <v>85.5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="P11">
+        <v>103</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>7.7249999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.1</v>
       </c>
@@ -5514,8 +8101,25 @@
         <f t="shared" si="3"/>
         <v>6.9224999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>8.1</v>
+      </c>
+      <c r="N12">
+        <v>85.4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="P12">
+        <v>102.4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6.11</v>
       </c>
@@ -5556,8 +8160,25 @@
         <f t="shared" si="3"/>
         <v>6.8624999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>8.11</v>
+      </c>
+      <c r="N13">
+        <v>85.4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="P13">
+        <v>100.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>7.5374999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.12</v>
       </c>
@@ -5598,8 +8219,25 @@
         <f t="shared" si="3"/>
         <v>6.8849999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N14">
+        <v>86</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>6.45</v>
+      </c>
+      <c r="P14">
+        <v>103.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>7.7624999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.13</v>
       </c>
@@ -5640,8 +8278,25 @@
         <f t="shared" si="3"/>
         <v>6.5925000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="N15">
+        <v>86.7</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="P15">
+        <v>104.3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>7.8224999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6.14</v>
       </c>
@@ -5662,16 +8317,45 @@
         <f t="shared" si="1"/>
         <v>6.03</v>
       </c>
+      <c r="G16">
+        <v>7.14</v>
+      </c>
+      <c r="H16">
+        <v>80.7</v>
+      </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.0525000000000002</v>
+      </c>
+      <c r="J16">
+        <v>7.14</v>
+      </c>
+      <c r="K16">
+        <v>87.3</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.5474999999999994</v>
+      </c>
+      <c r="M16">
+        <v>8.14</v>
+      </c>
+      <c r="N16">
+        <v>85.8</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="P16">
+        <v>104.6</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>7.8449999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.15</v>
       </c>
@@ -5692,16 +8376,45 @@
         <f t="shared" si="1"/>
         <v>6.1124999999999998</v>
       </c>
+      <c r="G17">
+        <v>7.15</v>
+      </c>
+      <c r="H17">
+        <v>77.2</v>
+      </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.79</v>
+      </c>
+      <c r="J17">
+        <v>7.15</v>
+      </c>
+      <c r="K17">
+        <v>87</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.5249999999999995</v>
+      </c>
+      <c r="M17">
+        <v>8.15</v>
+      </c>
+      <c r="N17">
+        <v>87</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>6.5249999999999995</v>
+      </c>
+      <c r="P17">
+        <v>104.5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>7.8374999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6.16</v>
       </c>
@@ -5722,16 +8435,45 @@
         <f t="shared" si="1"/>
         <v>6.1949999999999994</v>
       </c>
+      <c r="G18">
+        <v>7.16</v>
+      </c>
+      <c r="H18">
+        <v>79</v>
+      </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="J18">
+        <v>7.16</v>
+      </c>
+      <c r="K18">
+        <v>89.5</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.7124999999999995</v>
+      </c>
+      <c r="M18">
+        <v>8.16</v>
+      </c>
+      <c r="N18">
+        <v>85.9</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>6.4424999999999999</v>
+      </c>
+      <c r="P18">
+        <v>110</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.17</v>
       </c>
@@ -5752,16 +8494,45 @@
         <f t="shared" si="1"/>
         <v>6.2549999999999999</v>
       </c>
+      <c r="G19">
+        <v>7.17</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>7.17</v>
+      </c>
+      <c r="K19">
+        <v>87.7</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.5774999999999997</v>
+      </c>
+      <c r="M19">
+        <v>8.17</v>
+      </c>
+      <c r="N19">
+        <v>84.4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>6.33</v>
+      </c>
+      <c r="P19">
+        <v>112.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>8.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.18</v>
       </c>
@@ -5782,16 +8553,45 @@
         <f t="shared" si="1"/>
         <v>6.4574999999999996</v>
       </c>
+      <c r="G20">
+        <v>7.18</v>
+      </c>
+      <c r="H20">
+        <v>79.5</v>
+      </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9624999999999995</v>
+      </c>
+      <c r="J20">
+        <v>7.18</v>
+      </c>
+      <c r="K20">
+        <v>89.2</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.69</v>
+      </c>
+      <c r="M20">
+        <v>8.18</v>
+      </c>
+      <c r="N20">
+        <v>85.4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="P20">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6.19</v>
       </c>
@@ -5812,16 +8612,45 @@
         <f t="shared" si="1"/>
         <v>6.419999999999999</v>
       </c>
+      <c r="G21">
+        <v>7.19</v>
+      </c>
+      <c r="H21">
+        <v>80.099999999999994</v>
+      </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.0074999999999994</v>
+      </c>
+      <c r="J21">
+        <v>7.19</v>
+      </c>
+      <c r="K21">
+        <v>89.7</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.7275</v>
+      </c>
+      <c r="M21">
+        <v>8.19</v>
+      </c>
+      <c r="N21">
+        <v>85</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>6.375</v>
+      </c>
+      <c r="P21">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>8.4749999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2</v>
       </c>
@@ -5842,16 +8671,45 @@
         <f t="shared" si="1"/>
         <v>6.3074999999999992</v>
       </c>
+      <c r="G22">
+        <v>7.2</v>
+      </c>
+      <c r="H22">
+        <v>80.3</v>
+      </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.0225</v>
+      </c>
+      <c r="J22">
+        <v>7.2</v>
+      </c>
+      <c r="K22">
+        <v>93.6</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.02</v>
+      </c>
+      <c r="M22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N22">
+        <v>86</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>6.45</v>
+      </c>
+      <c r="P22">
+        <v>115</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.21</v>
       </c>
@@ -5872,16 +8730,45 @@
         <f t="shared" si="1"/>
         <v>6.6675000000000004</v>
       </c>
+      <c r="G23">
+        <v>7.21</v>
+      </c>
+      <c r="H23">
+        <v>80.8</v>
+      </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.06</v>
+      </c>
+      <c r="J23">
+        <v>7.21</v>
+      </c>
+      <c r="K23">
+        <v>90.2</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="M23">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="N23">
+        <v>86.3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>6.4724999999999993</v>
+      </c>
+      <c r="P23">
+        <v>117</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>8.7750000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.22</v>
       </c>
@@ -5902,16 +8789,45 @@
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
+      <c r="G24">
+        <v>7.22</v>
+      </c>
+      <c r="H24">
+        <v>80.400000000000006</v>
+      </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.03</v>
+      </c>
+      <c r="J24">
+        <v>7.22</v>
+      </c>
+      <c r="K24">
+        <v>89.7</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.7275</v>
+      </c>
+      <c r="M24">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N24">
+        <v>85.3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>6.3975</v>
+      </c>
+      <c r="P24">
+        <v>113.5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>8.5124999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6.23</v>
       </c>
@@ -5932,16 +8848,45 @@
         <f t="shared" si="1"/>
         <v>6.5249999999999995</v>
       </c>
+      <c r="G25">
+        <v>7.23</v>
+      </c>
+      <c r="H25">
+        <v>81.400000000000006</v>
+      </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="J25">
+        <v>7.23</v>
+      </c>
+      <c r="K25">
+        <v>91.6</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.8699999999999992</v>
+      </c>
+      <c r="M25">
+        <v>8.23</v>
+      </c>
+      <c r="N25">
+        <v>84.7</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>6.3525</v>
+      </c>
+      <c r="P25">
+        <v>111.7</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>8.3774999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.24</v>
       </c>
@@ -5962,16 +8907,45 @@
         <f t="shared" si="1"/>
         <v>6.5774999999999997</v>
       </c>
+      <c r="G26">
+        <v>7.24</v>
+      </c>
+      <c r="H26">
+        <v>83.5</v>
+      </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.2625000000000002</v>
+      </c>
+      <c r="J26">
+        <v>7.24</v>
+      </c>
+      <c r="K26">
+        <v>92.1</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.9074999999999998</v>
+      </c>
+      <c r="M26">
+        <v>8.24</v>
+      </c>
+      <c r="N26">
+        <v>85.4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="P26">
+        <v>113.3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>8.4974999999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.25</v>
       </c>
@@ -5992,16 +8966,45 @@
         <f t="shared" si="1"/>
         <v>6.7649999999999997</v>
       </c>
+      <c r="G27">
+        <v>7.25</v>
+      </c>
+      <c r="H27">
+        <v>85.4</v>
+      </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="J27">
+        <v>7.25</v>
+      </c>
+      <c r="K27">
+        <v>93.6</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.02</v>
+      </c>
+      <c r="M27">
+        <v>8.25</v>
+      </c>
+      <c r="N27">
+        <v>86.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>6.4874999999999998</v>
+      </c>
+      <c r="P27">
+        <v>113</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>8.4749999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.26</v>
       </c>
@@ -6022,16 +9025,45 @@
         <f t="shared" si="1"/>
         <v>6.7874999999999996</v>
       </c>
+      <c r="G28">
+        <v>7.26</v>
+      </c>
+      <c r="H28">
+        <v>82.9</v>
+      </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.2175000000000002</v>
+      </c>
+      <c r="J28">
+        <v>7.26</v>
+      </c>
+      <c r="K28">
+        <v>96.5</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.2374999999999998</v>
+      </c>
+      <c r="M28">
+        <v>8.26</v>
+      </c>
+      <c r="N28">
+        <v>87.1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>6.5324999999999998</v>
+      </c>
+      <c r="P28">
+        <v>114.1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>8.5574999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.27</v>
       </c>
@@ -6052,16 +9084,45 @@
         <f t="shared" si="1"/>
         <v>6.7874999999999996</v>
       </c>
+      <c r="G29">
+        <v>7.27</v>
+      </c>
+      <c r="H29">
+        <v>85.5</v>
+      </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="J29">
+        <v>7.27</v>
+      </c>
+      <c r="K29">
+        <v>95.5</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.1624999999999996</v>
+      </c>
+      <c r="M29">
+        <v>8.27</v>
+      </c>
+      <c r="N29">
+        <v>86.4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>6.48</v>
+      </c>
+      <c r="P29">
+        <v>111.5</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>8.3624999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.28</v>
       </c>
@@ -6082,16 +9143,45 @@
         <f t="shared" si="1"/>
         <v>6.78</v>
       </c>
+      <c r="G30">
+        <v>7.28</v>
+      </c>
+      <c r="H30">
+        <v>86.9</v>
+      </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5175000000000001</v>
+      </c>
+      <c r="J30">
+        <v>7.28</v>
+      </c>
+      <c r="K30">
+        <v>99.3</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4474999999999998</v>
+      </c>
+      <c r="M30">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="N30">
+        <v>86.5</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>6.4874999999999998</v>
+      </c>
+      <c r="P30">
+        <v>115.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>8.6624999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.29</v>
       </c>
@@ -6112,16 +9202,45 @@
         <f t="shared" si="1"/>
         <v>6.5774999999999997</v>
       </c>
+      <c r="G31">
+        <v>7.29</v>
+      </c>
+      <c r="H31">
+        <v>85.5</v>
+      </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="J31">
+        <v>7.29</v>
+      </c>
+      <c r="K31">
+        <v>97.6</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.3199999999999994</v>
+      </c>
+      <c r="M31">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="N31">
+        <v>86.7</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="P31">
+        <v>114</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6.3</v>
       </c>
@@ -6142,16 +9261,45 @@
         <f t="shared" si="1"/>
         <v>7.0125000000000002</v>
       </c>
+      <c r="G32">
+        <v>7.3</v>
+      </c>
+      <c r="H32">
+        <v>85.5</v>
+      </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="J32">
+        <v>7.3</v>
+      </c>
+      <c r="K32">
+        <v>95.7</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+        <v>7.1775000000000002</v>
+      </c>
+      <c r="M32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N32">
+        <v>88.4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>6.63</v>
+      </c>
+      <c r="P32">
+        <v>114.8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6160,8 +9308,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>7.31</v>
+      </c>
+      <c r="H33">
+        <v>86.7</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="J33">
+        <v>7.31</v>
+      </c>
+      <c r="K33">
+        <v>100.6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>7.544999999999999</v>
+      </c>
+      <c r="M33">
+        <v>8.31</v>
+      </c>
+      <c r="N33">
+        <v>87.6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>6.5699999999999994</v>
+      </c>
+      <c r="P33">
+        <v>114</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>8.5499999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6170,8 +9355,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6180,8 +9373,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6191,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6201,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6219,16 +9420,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F95AF-CF44-49EB-B290-97BE69F59818}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA63277-70D3-4B9B-BBE9-4D36398E167A}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9.1</v>
+      </c>
+      <c r="B2">
+        <v>88.5</v>
+      </c>
+      <c r="C2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B3">
+        <v>88.2</v>
+      </c>
+      <c r="C3">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.4</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>115.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F95AF-CF44-49EB-B290-97BE69F59818}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -6241,8 +9503,14 @@
       <c r="D1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>27</v>
       </c>
@@ -6255,8 +9523,14 @@
       <c r="D2">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>69.3</v>
+      </c>
+      <c r="F2">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>27.4</v>
       </c>
@@ -6269,8 +9543,14 @@
       <c r="D3">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27.3</v>
       </c>
@@ -6283,8 +9563,14 @@
       <c r="D4">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>69.7</v>
+      </c>
+      <c r="F4">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27.8</v>
       </c>
@@ -6297,8 +9583,14 @@
       <c r="D5">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>70.5</v>
+      </c>
+      <c r="F5">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28.3</v>
       </c>
@@ -6311,8 +9603,14 @@
       <c r="D6">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F6">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30.8</v>
       </c>
@@ -6325,8 +9623,14 @@
       <c r="D7">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F7">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32.200000000000003</v>
       </c>
@@ -6339,8 +9643,14 @@
       <c r="D8">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>71.5</v>
+      </c>
+      <c r="F8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32.799999999999997</v>
       </c>
@@ -6353,8 +9663,14 @@
       <c r="D9">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>75.3</v>
+      </c>
+      <c r="F9">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>32.200000000000003</v>
       </c>
@@ -6367,8 +9683,14 @@
       <c r="D10">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>74.2</v>
+      </c>
+      <c r="F10">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33.1</v>
       </c>
@@ -6381,8 +9703,14 @@
       <c r="D11">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F11">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34.9</v>
       </c>
@@ -6395,8 +9723,14 @@
       <c r="D12">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>74.5</v>
+      </c>
+      <c r="F12">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36.200000000000003</v>
       </c>
@@ -6409,8 +9743,14 @@
       <c r="D13">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>75.3</v>
+      </c>
+      <c r="F13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>37.299999999999997</v>
       </c>
@@ -6423,8 +9763,14 @@
       <c r="D14">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>75.2</v>
+      </c>
+      <c r="F14">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38.200000000000003</v>
       </c>
@@ -6437,8 +9783,14 @@
       <c r="D15">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>80.7</v>
+      </c>
+      <c r="F15">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>39.200000000000003</v>
       </c>
@@ -6451,8 +9803,14 @@
       <c r="D16">
         <v>70.739999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>77.2</v>
+      </c>
+      <c r="F16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40.799999999999997</v>
       </c>
@@ -6465,8 +9823,14 @@
       <c r="D17">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>41.7</v>
       </c>
@@ -6479,8 +9843,14 @@
       <c r="D18">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>44</v>
       </c>
@@ -6493,8 +9863,14 @@
       <c r="D19">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>79.5</v>
+      </c>
+      <c r="F19">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>45.8</v>
       </c>
@@ -6507,8 +9883,14 @@
       <c r="D20">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44.4</v>
       </c>
@@ -6521,8 +9903,14 @@
       <c r="D21">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>80.3</v>
+      </c>
+      <c r="F21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>43.6</v>
       </c>
@@ -6535,8 +9923,14 @@
       <c r="D22">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>80.8</v>
+      </c>
+      <c r="F22">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>45.9</v>
       </c>
@@ -6549,8 +9943,14 @@
       <c r="D23">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F23">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>46.6</v>
       </c>
@@ -6563,8 +9963,14 @@
       <c r="D24">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F24">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>46.4</v>
       </c>
@@ -6577,8 +9983,14 @@
       <c r="D25">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>83.5</v>
+      </c>
+      <c r="F25">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>47.6</v>
       </c>
@@ -6591,8 +10003,14 @@
       <c r="D26">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>85.4</v>
+      </c>
+      <c r="F26">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>48.4</v>
       </c>
@@ -6605,8 +10023,14 @@
       <c r="D27">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>82.9</v>
+      </c>
+      <c r="F27">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>60.9</v>
       </c>
@@ -6616,8 +10040,14 @@
       <c r="D28">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>85.5</v>
+      </c>
+      <c r="F28">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>61.1</v>
       </c>
@@ -6627,8 +10057,14 @@
       <c r="D29">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>86.9</v>
+      </c>
+      <c r="F29">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>60.8</v>
       </c>
@@ -6638,8 +10074,14 @@
       <c r="D30">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>85.5</v>
+      </c>
+      <c r="F30">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>61.4</v>
       </c>
@@ -6649,10 +10091,22 @@
       <c r="D31">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>85.5</v>
+      </c>
+      <c r="F31">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>68.8</v>
+      </c>
+      <c r="E32">
+        <v>86.7</v>
+      </c>
+      <c r="F32">
+        <v>87.6</v>
       </c>
     </row>
   </sheetData>
@@ -6662,248 +10116,451 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75898247-527E-42B8-88C5-9EC33E37AC23}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>37.200000000000003</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C2">
+        <v>93.1</v>
+      </c>
+      <c r="D2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>36.4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C3">
+        <v>86.3</v>
+      </c>
+      <c r="D3">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>39.1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C4">
+        <v>89.7</v>
+      </c>
+      <c r="D4">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>39.799999999999997</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C5">
+        <v>89.3</v>
+      </c>
+      <c r="D5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>41.3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C6">
+        <v>88.7</v>
+      </c>
+      <c r="D6">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>40.5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C7">
+        <v>89.3</v>
+      </c>
+      <c r="D7">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>42</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C8">
+        <v>92.6</v>
+      </c>
+      <c r="D8">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>44.3</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>46.9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C10">
+        <v>92.2</v>
+      </c>
+      <c r="D10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>49.5</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C11">
+        <v>92.3</v>
+      </c>
+      <c r="D11">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>53.2</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C12">
+        <v>91.5</v>
+      </c>
+      <c r="D12">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>54.7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C13">
+        <v>91.8</v>
+      </c>
+      <c r="D13">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>54.4</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14">
+        <v>87.9</v>
+      </c>
+      <c r="D14">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>54</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C15">
+        <v>87.3</v>
+      </c>
+      <c r="D15">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>54.3</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>53.6</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17">
+        <v>89.5</v>
+      </c>
+      <c r="D17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>54.3</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>83.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C18">
+        <v>87.7</v>
+      </c>
+      <c r="D18">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>51.5</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>86.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C19">
+        <v>89.2</v>
+      </c>
+      <c r="D19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>57.3</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>85.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C20">
+        <v>89.7</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>57.5</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>84.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C21">
+        <v>93.6</v>
+      </c>
+      <c r="D21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>68.099999999999994</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>88.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="C22">
+        <v>90.2</v>
+      </c>
+      <c r="D22">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>61.6</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C23">
+        <v>89.7</v>
+      </c>
+      <c r="D23">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>63</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="C24">
+        <v>91.6</v>
+      </c>
+      <c r="D24">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="C25">
+        <v>92.1</v>
+      </c>
+      <c r="D25">
+        <v>113.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>90.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>93.6</v>
+      </c>
+      <c r="D26">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>96.5</v>
+      </c>
+      <c r="D27">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28">
+        <v>90.5</v>
+      </c>
+      <c r="C28">
+        <v>95.5</v>
+      </c>
+      <c r="D28">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="C29">
+        <v>99.3</v>
+      </c>
+      <c r="D29">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="C30">
+        <v>97.6</v>
+      </c>
+      <c r="D30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>93.5</v>
+      </c>
+      <c r="C31">
+        <v>95.7</v>
+      </c>
+      <c r="D31">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>100.6</v>
+      </c>
+      <c r="D32">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C27429A-53F2-4784-8533-80DA1293E7C0}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7344,320 +11001,816 @@
       <c r="A55">
         <v>61.1</v>
       </c>
+      <c r="B55">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>60.8</v>
       </c>
+      <c r="B56">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>61.4</v>
       </c>
+      <c r="B57">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>62</v>
       </c>
+      <c r="B58">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>64.3</v>
       </c>
+      <c r="B59">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>61.7</v>
       </c>
+      <c r="B60">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>63.1</v>
       </c>
+      <c r="B61">
+        <v>92.6</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>62.8</v>
       </c>
+      <c r="B62">
+        <v>92</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62.5</v>
       </c>
+      <c r="B63">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>70.739999999999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>113.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>67</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>87.6</v>
       </c>
     </row>
   </sheetData>
